--- a/LavoroGruppo/Consegna2/MODELLO_matrice_responsabilità.xlsx
+++ b/LavoroGruppo/Consegna2/MODELLO_matrice_responsabilità.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\GitHub\LavoroGruppo\Consegna2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C319794-A288-43D6-A72D-178F516B49E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="15870" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>*R=Responsabile</t>
   </si>
@@ -44,12 +50,30 @@
   <si>
     <t>Nome progetto:</t>
   </si>
+  <si>
+    <t>Use case contesto</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -417,8 +441,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -429,23 +456,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale visitato" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -772,26 +799,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.125" customWidth="1"/>
-    <col min="2" max="2" width="99.125" customWidth="1"/>
-    <col min="4" max="19" width="4.375" customWidth="1"/>
+    <col min="1" max="1" width="7.09765625" customWidth="1"/>
+    <col min="2" max="2" width="99.09765625" customWidth="1"/>
+    <col min="4" max="19" width="4.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21">
+    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -799,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -807,30 +834,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="16.5" thickBot="1"/>
-    <row r="7" spans="1:19" ht="16.5" thickBot="1">
-      <c r="D7" s="28"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="27"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="25" t="s">
+    <row r="6" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="28"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="30"/>
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
@@ -880,18 +915,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="23" t="s">
+        <v>8</v>
+      </c>
       <c r="C9" s="24"/>
-      <c r="D9" s="19"/>
+      <c r="D9" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
       <c r="L9" s="5"/>
@@ -903,7 +946,7 @@
       <c r="R9" s="5"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -926,7 +969,7 @@
       <c r="R10" s="5"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -949,7 +992,7 @@
       <c r="R11" s="5"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>4</v>
       </c>
@@ -972,7 +1015,7 @@
       <c r="R12" s="5"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>5</v>
       </c>
@@ -995,7 +1038,7 @@
       <c r="R13" s="5"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -1018,7 +1061,7 @@
       <c r="R14" s="5"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>7</v>
       </c>
@@ -1041,7 +1084,7 @@
       <c r="R15" s="5"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>8</v>
       </c>
@@ -1064,7 +1107,7 @@
       <c r="R16" s="5"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>9</v>
       </c>
@@ -1087,12 +1130,12 @@
       <c r="R17" s="5"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" ht="16.5" thickBot="1">
+    <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>10</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="20"/>
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
@@ -1110,7 +1153,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>11</v>
       </c>
@@ -1133,7 +1176,7 @@
       <c r="R19" s="13"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>12</v>
       </c>
@@ -1156,7 +1199,7 @@
       <c r="R20" s="5"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>13</v>
       </c>
@@ -1179,7 +1222,7 @@
       <c r="R21" s="5"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>14</v>
       </c>
@@ -1202,7 +1245,7 @@
       <c r="R22" s="5"/>
       <c r="S22" s="15"/>
     </row>
-    <row r="23" spans="1:19" ht="16.5" thickBot="1">
+    <row r="23" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>15</v>
       </c>
@@ -1225,7 +1268,7 @@
       <c r="R23" s="9"/>
       <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:19" ht="16.5" thickBot="1">
+    <row r="24" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>16</v>
       </c>
@@ -1250,6 +1293,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B23:C23"/>
@@ -1260,21 +1318,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/LavoroGruppo/Consegna2/MODELLO_matrice_responsabilità.xlsx
+++ b/LavoroGruppo/Consegna2/MODELLO_matrice_responsabilità.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\GitHub\LavoroGruppo\Consegna2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C319794-A288-43D6-A72D-178F516B49E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B71FBA-5F90-4914-84B0-E2363D94D846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t>*R=Responsabile</t>
   </si>
@@ -51,22 +51,37 @@
     <t>Nome progetto:</t>
   </si>
   <si>
-    <t>Use case contesto</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Riunione con mandanti</t>
+  </si>
+  <si>
+    <t>Revisione verbale</t>
+  </si>
+  <si>
+    <t>Lista requisiti</t>
+  </si>
+  <si>
+    <t>Diagramma di Gantt</t>
+  </si>
+  <si>
+    <t>Use case di contesto</t>
+  </si>
+  <si>
+    <t>Timesheet personale</t>
+  </si>
+  <si>
+    <t>Dario</t>
+  </si>
+  <si>
+    <t>Fabio</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Simone</t>
   </si>
 </sst>
 </file>
@@ -441,11 +456,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -456,8 +468,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -802,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -836,36 +851,36 @@
     </row>
     <row r="6" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="28"/>
+      <c r="D7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="27"/>
+      <c r="J7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="27"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="27"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="25"/>
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
@@ -920,23 +935,23 @@
         <v>1</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="5"/>
       <c r="I9" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="4"/>
       <c r="N9" s="5"/>
@@ -950,16 +965,26 @@
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="23" t="s">
+        <v>10</v>
+      </c>
       <c r="C10" s="24"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
@@ -973,15 +998,21 @@
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="C11" s="24"/>
       <c r="D11" s="19"/>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
       <c r="M11" s="4"/>
@@ -996,16 +1027,26 @@
       <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="C12" s="24"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
+      <c r="G12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
@@ -1019,15 +1060,25 @@
       <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="C13" s="24"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
+      <c r="I13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
       <c r="M13" s="4"/>
@@ -1042,7 +1093,9 @@
       <c r="A14" s="6">
         <v>6</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="C14" s="24"/>
       <c r="D14" s="19"/>
       <c r="E14" s="4"/>
@@ -1134,8 +1187,8 @@
       <c r="A18" s="7">
         <v>10</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="20"/>
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
@@ -1293,11 +1346,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
@@ -1308,16 +1366,11 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/LavoroGruppo/Consegna2/MODELLO_matrice_responsabilità.xlsx
+++ b/LavoroGruppo/Consegna2/MODELLO_matrice_responsabilità.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\GitHub\LavoroGruppo\Consegna2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simog\Desktop\COME\LavoroGruppo\Consegna2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B71FBA-5F90-4914-84B0-E2363D94D846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B031AD9B-B664-4BF6-97FF-C84356720A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -42,15 +42,9 @@
     <t>Matrice delle responsabilitità</t>
   </si>
   <si>
-    <t>Gruppo:</t>
-  </si>
-  <si>
     <t>Attività</t>
   </si>
   <si>
-    <t>Nome progetto:</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -82,6 +76,12 @@
   </si>
   <si>
     <t>Simone</t>
+  </si>
+  <si>
+    <t>Gruppo: A</t>
+  </si>
+  <si>
+    <t>Nome progetto: Time&amp;Pieces</t>
   </si>
 </sst>
 </file>
@@ -818,53 +818,53 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:K7"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.09765625" customWidth="1"/>
-    <col min="2" max="2" width="99.09765625" customWidth="1"/>
-    <col min="4" max="19" width="4.3984375" customWidth="1"/>
+    <col min="1" max="1" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="99.125" customWidth="1"/>
+    <col min="4" max="19" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K7" s="27"/>
       <c r="L7" s="26"/>
@@ -876,9 +876,9 @@
       <c r="R7" s="26"/>
       <c r="S7" s="27"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="25"/>
       <c r="D8" s="1" t="s">
@@ -930,27 +930,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
       <c r="I9" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="4"/>
@@ -961,29 +961,29 @@
       <c r="R9" s="5"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="19"/>
       <c r="E10" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
       <c r="I10" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="4"/>
@@ -994,24 +994,24 @@
       <c r="R10" s="5"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>3</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="19"/>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
       <c r="G11" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="4"/>
       <c r="J11" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
@@ -1023,29 +1023,29 @@
       <c r="R11" s="5"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>4</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="19"/>
       <c r="E12" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
       <c r="K12" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="4"/>
@@ -1056,28 +1056,28 @@
       <c r="R12" s="5"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>5</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="19"/>
       <c r="E13" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
@@ -1089,12 +1089,12 @@
       <c r="R13" s="5"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>6</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="19"/>
@@ -1114,7 +1114,7 @@
       <c r="R14" s="5"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>7</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="R15" s="5"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>8</v>
       </c>
@@ -1160,7 +1160,7 @@
       <c r="R16" s="5"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>9</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="R17" s="5"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="R18" s="11"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>11</v>
       </c>
@@ -1229,7 +1229,7 @@
       <c r="R19" s="13"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>12</v>
       </c>
@@ -1252,7 +1252,7 @@
       <c r="R20" s="5"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>13</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="R21" s="5"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>14</v>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="R22" s="5"/>
       <c r="S22" s="15"/>
     </row>
-    <row r="23" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>15</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="R23" s="9"/>
       <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>16</v>
       </c>

--- a/LavoroGruppo/Consegna2/MODELLO_matrice_responsabilità.xlsx
+++ b/LavoroGruppo/Consegna2/MODELLO_matrice_responsabilità.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simog\Desktop\COME\LavoroGruppo\Consegna2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Documents\COME\LavoroGruppo\Consegna2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B031AD9B-B664-4BF6-97FF-C84356720A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71B6E8A-2C85-49DD-A4F9-5DF92134647E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
   <si>
     <t>*R=Responsabile</t>
   </si>
@@ -456,8 +456,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,17 +471,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -851,36 +851,36 @@
     </row>
     <row r="6" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="26" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="26" t="s">
+      <c r="G7" s="28"/>
+      <c r="H7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="26" t="s">
+      <c r="I7" s="28"/>
+      <c r="J7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="27"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="28"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="30"/>
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1097,14 +1097,22 @@
         <v>12</v>
       </c>
       <c r="C14" s="24"/>
-      <c r="D14" s="19"/>
+      <c r="D14" s="19" t="s">
+        <v>6</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
@@ -1187,8 +1195,8 @@
       <c r="A18" s="7">
         <v>10</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="20"/>
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
@@ -1346,6 +1354,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B23:C23"/>
@@ -1356,21 +1379,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/LavoroGruppo/Consegna2/MODELLO_matrice_responsabilità.xlsx
+++ b/LavoroGruppo/Consegna2/MODELLO_matrice_responsabilità.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Documents\COME\LavoroGruppo\Consegna2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simog\Desktop\COME\LavoroGruppo\Consegna2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71B6E8A-2C85-49DD-A4F9-5DF92134647E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D707212F-9E21-41CF-A565-873D309EA199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
   <si>
     <t>*R=Responsabile</t>
   </si>
@@ -456,11 +456,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,14 +468,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale visitato" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -851,36 +851,36 @@
     </row>
     <row r="6" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="27" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="27" t="s">
+      <c r="G7" s="27"/>
+      <c r="H7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="27" t="s">
+      <c r="I7" s="27"/>
+      <c r="J7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="28"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="27"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="25"/>
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1004,16 +1004,18 @@
       <c r="C11" s="24"/>
       <c r="D11" s="19"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
@@ -1039,14 +1041,14 @@
       <c r="G12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="4"/>
       <c r="L12" s="5"/>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
@@ -1072,14 +1074,14 @@
       <c r="G13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="4"/>
+      <c r="H13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
@@ -1195,8 +1197,8 @@
       <c r="A18" s="7">
         <v>10</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="20"/>
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
@@ -1354,11 +1356,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
@@ -1369,16 +1376,11 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/LavoroGruppo/Consegna2/MODELLO_matrice_responsabilità.xlsx
+++ b/LavoroGruppo/Consegna2/MODELLO_matrice_responsabilità.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simog\Desktop\COME\LavoroGruppo\Consegna2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\GitHub\LavoroGruppo\Consegna3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D707212F-9E21-41CF-A565-873D309EA199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D09BB91-E71A-4CC1-B300-C757A5233961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
   <si>
     <t>*R=Responsabile</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>Nome progetto: Time&amp;Pieces</t>
+  </si>
+  <si>
+    <t>Use case scenario login</t>
+  </si>
+  <si>
+    <t>Use case scenario inserimento dati</t>
+  </si>
+  <si>
+    <t>Use case scenario invio report</t>
+  </si>
+  <si>
+    <t>Use case scenario gestione utenti e gruppi</t>
+  </si>
+  <si>
+    <t>UML gestione utenti e gruppi</t>
   </si>
 </sst>
 </file>
@@ -420,7 +435,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -467,12 +482,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -818,7 +827,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1128,9 +1137,13 @@
       <c r="A15" s="6">
         <v>7</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="C15" s="24"/>
-      <c r="D15" s="19"/>
+      <c r="D15" s="19" t="s">
+        <v>6</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="4"/>
@@ -1151,13 +1164,17 @@
       <c r="A16" s="6">
         <v>8</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="C16" s="24"/>
       <c r="D16" s="19"/>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
@@ -1174,7 +1191,9 @@
       <c r="A17" s="6">
         <v>9</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="C17" s="24"/>
       <c r="D17" s="19"/>
       <c r="E17" s="4"/>
@@ -1182,7 +1201,9 @@
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="K17" s="4"/>
       <c r="L17" s="5"/>
       <c r="M17" s="4"/>
@@ -1197,11 +1218,15 @@
       <c r="A18" s="7">
         <v>10</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="24"/>
       <c r="D18" s="20"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
       <c r="I18" s="12"/>
@@ -1220,11 +1245,15 @@
       <c r="A19" s="8">
         <v>11</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="C19" s="24"/>
       <c r="D19" s="21"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="G19" s="14"/>
       <c r="H19" s="13"/>
       <c r="I19" s="14"/>

--- a/LavoroGruppo/Consegna2/MODELLO_matrice_responsabilità.xlsx
+++ b/LavoroGruppo/Consegna2/MODELLO_matrice_responsabilità.xlsx
@@ -5,17 +5,17 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\GitHub\LavoroGruppo\Consegna2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simog\Desktop\COME\LavoroGruppo\Consegna2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13079A41-9125-46FC-B67D-17494CC1DEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BEDEE9-AD19-47F0-BFD8-507CB075375D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -826,14 +826,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.125" customWidth="1"/>
-    <col min="2" max="2" width="99.125" customWidth="1"/>
+    <col min="2" max="2" width="66" customWidth="1"/>
     <col min="4" max="19" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
